--- a/medicine/Pharmacie/Bélatacept/Bélatacept.xlsx
+++ b/medicine/Pharmacie/Bélatacept/Bélatacept.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9latacept</t>
+          <t>Bélatacept</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bélatacept est une molécule utilisée comme médicament immunosuppresseur. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9latacept</t>
+          <t>Bélatacept</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une protéine de fusion soluble formée de CTLA-4 et du fragment constant d’une Immunoglobuline G. Il se fixe sur le CD80 et le CD86[1]. Sa structure est ainsi très proche de celle de l'abatacept. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une protéine de fusion soluble formée de CTLA-4 et du fragment constant d’une Immunoglobuline G. Il se fixe sur le CD80 et le CD86. Sa structure est ainsi très proche de celle de l'abatacept. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9latacept</t>
+          <t>Bélatacept</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les patients porteurs d'une greffe de rein, le bélatacept protège mieux la fonction rénale que la cyclosporine[2] tout en ayant une activité anti-rejet équivalente[3], et ce, avec un recul atteignant plusieurs années[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les patients porteurs d'une greffe de rein, le bélatacept protège mieux la fonction rénale que la cyclosporine tout en ayant une activité anti-rejet équivalente, et ce, avec un recul atteignant plusieurs années.
 </t>
         </is>
       </c>
